--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Vallet_(graveur)/Pierre_Vallet_(graveur).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Vallet_(graveur)/Pierre_Vallet_(graveur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Vallet (né à Orléans vers 1575, mort vers 1657) est un graveur français, brodeur des rois Henri IV et Louis XIII.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin du roy tres chrestien Henri IV, roy de France et de Navare dedie à la royne, 1608.Ce livre offre des illustrations des fleurs du jardin du Louvre tenu par Jean Robin et son fils.
 Les Adventures amoureuses de Theagenes et Chariclée, sommairement descrites et représentées par figures dédié au Roy, par Pierre Vallet son brodeur ordinaire, Paris chez Gabriel Tavernier, 1613
